--- a/test/Расшифровка ЭО BIQ5257(1).xlsx
+++ b/test/Расшифровка ЭО BIQ5257(1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9435" tabRatio="735" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9435" tabRatio="735" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Оценка" sheetId="25" r:id="rId1"/>
@@ -1019,23 +1019,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1350,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,52 +2134,52 @@
       <c r="B6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="87" t="s">
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87" t="s">
+      <c r="D7" s="85"/>
+      <c r="E7" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87" t="s">
+      <c r="H7" s="85"/>
+      <c r="I7" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87" t="s">
+      <c r="J7" s="85"/>
+      <c r="K7" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87" t="s">
+      <c r="L7" s="85"/>
+      <c r="M7" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="85"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
@@ -2268,7 +2268,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="90" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -2312,7 +2312,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
+      <c r="A11" s="90"/>
       <c r="B11" s="58" t="s">
         <v>23</v>
       </c>
@@ -2354,7 +2354,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="90" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="58" t="s">
@@ -2398,7 +2398,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="58" t="s">
         <v>6</v>
       </c>
@@ -2440,7 +2440,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="86" t="s">
+      <c r="A14" s="90" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="58" t="s">
@@ -2484,7 +2484,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="58" t="s">
         <v>7</v>
       </c>
@@ -2526,7 +2526,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="90" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="58" t="s">
@@ -2570,7 +2570,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="58" t="s">
         <v>30</v>
       </c>
@@ -2656,7 +2656,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="90" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="58" t="s">
@@ -2700,7 +2700,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="58" t="s">
         <v>16</v>
       </c>
@@ -2796,7 +2796,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="89" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="55" t="s">
@@ -2840,7 +2840,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="55" t="s">
         <v>37</v>
       </c>
@@ -2882,7 +2882,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="55" t="s">
         <v>38</v>
       </c>
@@ -3255,6 +3255,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
@@ -3263,12 +3269,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3276,21 +3276,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101001FBA738D46B8C545A6D67A5D9179E626" ma:contentTypeVersion="0" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="9f473e0b291382668614debc5d36aa4f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02f955febea7e716b4e91cddba171100">
     <xsd:element name="properties">
@@ -3404,17 +3389,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3428,17 +3429,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D38F7E9-60F0-4769-BD1B-491B9D9189ED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676BF1D7-A4D9-4478-A8BA-91CF146DE1C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>